--- a/Tablet/Posts/Action 12/Results.xlsx
+++ b/Tablet/Posts/Action 12/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instagram\Tablet\Reels\Reel-15segs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Posts\Action 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9680860A-8D44-4338-99BF-56E00CDD3673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B6AEE3-73C9-4FC5-BFA0-5D6C6D2BAF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla de pruebas" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla total" sheetId="2" r:id="rId2"/>
+    <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
+    <sheet name="Total table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -254,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,19 +553,19 @@
   <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="F206" sqref="F206"/>
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -583,7 +583,7 @@
         <v>126851</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -591,7 +591,7 @@
         <v>126.851</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -631,7 +631,7 @@
         <v>1.0241400000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -651,7 +651,7 @@
         <v>4.12202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -671,7 +671,7 @@
         <v>3.09788</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -691,7 +691,7 @@
         <v>1.8144588492063494</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -711,7 +711,7 @@
         <v>1.08182</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -731,7 +731,7 @@
         <v>2.2319300000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -751,7 +751,7 @@
         <v>1.1501100000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -771,7 +771,7 @@
         <v>0.95112597124752052</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -791,7 +791,7 @@
         <v>0.90464061318153932</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -811,7 +811,7 @@
         <v>1.4750299999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -831,7 +831,7 @@
         <v>1.6512450990099008</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -851,7 +851,7 @@
         <v>2.3633449999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -871,7 +871,7 @@
         <v>1.6213458544220032</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -891,7 +891,7 @@
         <v>0.40014499999999986</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -911,7 +911,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -929,7 +929,7 @@
         <v>95503</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -937,7 +937,7 @@
         <v>95.503</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -957,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0.98509000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -997,7 +997,7 @@
         <v>4.1968800000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>3.2117900000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>2.1668178421052633</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>1.2952224999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>3.110385</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1.8151625</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1.0366994500410545</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>1.0747457497154249</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>1.7792349999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>2.0813598026315789</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>2.4053950000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>1.9328443448501234</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0.72863999999999984</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>87932</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>87.932000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>0.95981000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>4.4614700000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>3.5016600000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>2.2457802285714288</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1.2060900000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>3.0814300000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>1.87534</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>1.0621586226138968</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1.1281809395930507</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>2.1696</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>2.1739676595744681</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>2.4772099999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>1.9962199560191298</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0.91714999999999991</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>82769</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>82.769000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>1.0336099999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>4.4149399999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>3.3813299999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>2.3012656363636363</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>1.17018</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>3.1174200000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1.9472400000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>1.0141088408033314</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>1.0284167409954768</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>18</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>2.248129022556391</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>2.4251500000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>2.0677169985105897</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>1.0402099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -1959,7 +1959,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>115566</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>115.566</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>0.97663999999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>4.5873900000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>3.6107500000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>1.9274099130434785</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>1.0504825</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>2.7230099999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>15</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1.6725274999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>1.0129473005345613</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>1.026062233660255</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>1.4111199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>19</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>1.7933963043478258</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>20</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>2.3379300000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>1.6962534866890162</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>0.39722999999999986</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>102452</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>102.452</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>0.97694999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>4.1588700000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>3.1819200000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>1.8742563725490196</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>1.129785</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>2.2818424999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>1.1520574999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>0.92466288938962116</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0.85500145901436286</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>18</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>1.4881250000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>1.7518698170731708</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>20</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>2.2758050000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>21</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>1.6861971228422559</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0.45573000000000008</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>29</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>112539</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>112.539</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>0.94471000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>4.32219</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>3.3774799999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>1.9216116517857142</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>1.0135799999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>2.7272375000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1.7136575000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>1.029427143702472</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1.0597202441914297</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>1.3801300000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>1.7974139444444444</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>2.3166950000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>21</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>1.6757753572242391</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>22</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>0.40317500000000012</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>108002</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>108.002</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0.96787999999999996</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>10</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>4.5251000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>3.55722</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>2.0304794418604648</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>1.26431</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>14</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>2.67395</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>15</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>1.40964</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1.052232784595337</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>17</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>1.107193832977257</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>18</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>1.57765</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>19</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>1.9077504046242775</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>20</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>2.4353750000000005</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>1.7997254006188725</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0.55562</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>86793</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>2</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>86.793000000000006</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0.96130000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>10</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>4.4611599999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>3.4998599999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>12</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>2.2322086705202313</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>13</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>1.0581849999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>14</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>3.1544650000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>15</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>2.0962800000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>1.0945554695655129</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>17</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>1.1980516759557804</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>18</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>2.1658200000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>19</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>2.1534195683453241</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>20</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>2.4309849999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>21</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>1.9630745725031946</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>22</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>1.0424500000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>32</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>82758</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>82.757999999999996</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>9</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0.96787999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>4.2728999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>3.3050199999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>2.234736606060606</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>13</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1.145985</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>14</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>3.1834749999999996</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>15</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>2.0374899999999996</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>1.0489228459835429</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>17</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>1.1002391368262154</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>18</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>2.1551800000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>19</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>2.1689441353383456</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>20</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>2.4428800000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>21</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>1.9878880088351978</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>22</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>1.0120100000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>23</v>
       </c>
@@ -4038,22 +4038,22 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0.94471000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>4.5873900000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>3.6426799999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>2.074902521206619</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>1.141564</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>2.8285144999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>1.6869504999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0.18089143141429712</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>3.272170995911336E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>1.790889</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>2.0791625908120257</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>2.0877610044563282</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>2.0677269922360613</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>0.15918515776397513</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>207.73197826438246</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>168.03978855125001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>184.94233204436361</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>230.16591948067463</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>15.799086529566621</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24">
         <f>G17-(G3*B6)</f>
         <v>113.15091954938245</v>
